--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3059.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3059.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1749305683325353</v>
+        <v>1.684223175048828</v>
       </c>
       <c r="B1">
-        <v>0.1769726012215693</v>
+        <v>3.317033052444458</v>
       </c>
       <c r="C1">
-        <v>0.1905523334999962</v>
+        <v>6.005094051361084</v>
       </c>
       <c r="D1">
-        <v>0.2723307087837539</v>
+        <v>1.816447973251343</v>
       </c>
       <c r="E1">
-        <v>0.5707494931964053</v>
+        <v>0.8975754976272583</v>
       </c>
     </row>
   </sheetData>
